--- a/src/test/resources/dataProvider/Data.xlsx
+++ b/src/test/resources/dataProvider/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15990" windowHeight="7545" tabRatio="623"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17865" windowHeight="5940" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase Data" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -59,13 +59,46 @@
     <t>test1234</t>
   </si>
   <si>
-    <t>new12345</t>
-  </si>
-  <si>
     <t>TC03_UpdateProfile</t>
   </si>
   <si>
-    <t>TC04_ChangePassword</t>
+    <t>TC_07_CreateTrail</t>
+  </si>
+  <si>
+    <t>AutoLength_</t>
+  </si>
+  <si>
+    <t>traillink.com</t>
+  </si>
+  <si>
+    <t>EP1</t>
+  </si>
+  <si>
+    <t>EP2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>TC_06_UpdatePhotoScenarios</t>
+  </si>
+  <si>
+    <t>Aspen Airport Business Center Trail</t>
+  </si>
+  <si>
+    <t>AutoPhoto</t>
+  </si>
+  <si>
+    <t>AutoPhotoCap</t>
+  </si>
+  <si>
+    <t>RioEnMedioLoop.jpg</t>
+  </si>
+  <si>
+    <t>AutoTrail</t>
   </si>
 </sst>
 </file>
@@ -543,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -683,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -698,33 +731,59 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1">
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
@@ -1164,7 +1223,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1">
+    <row r="65" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="D65" s="1"/>
@@ -1172,7 +1231,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:16" s="2" customFormat="1">
+    <row r="66" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="D66" s="1"/>
@@ -1180,7 +1239,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1">
+    <row r="67" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="D67" s="1"/>
@@ -1188,7 +1247,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:16" s="2" customFormat="1">
+    <row r="68" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
       <c r="D68" s="1"/>
@@ -1196,7 +1255,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
       <c r="D69" s="1"/>
@@ -1204,7 +1263,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:16" s="2" customFormat="1">
+    <row r="70" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="D70" s="1"/>
@@ -1212,7 +1271,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:16" s="2" customFormat="1">
+    <row r="71" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="D71" s="1"/>
@@ -1220,7 +1279,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:16" s="2" customFormat="1">
+    <row r="72" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="D72" s="1"/>
@@ -1228,7 +1287,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:16" s="2" customFormat="1">
+    <row r="73" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="D73" s="1"/>
@@ -1236,7 +1295,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:16" s="2" customFormat="1">
+    <row r="74" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="D74" s="1"/>
@@ -1244,7 +1303,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1">
+    <row r="75" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="D75" s="1"/>
@@ -1252,7 +1311,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:16" s="2" customFormat="1">
+    <row r="76" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="D76" s="1"/>
@@ -1260,7 +1319,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:16" s="2" customFormat="1">
+    <row r="77" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="D77" s="1"/>
@@ -1268,7 +1327,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="2" customFormat="1">
+    <row r="78" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="D78" s="1"/>
@@ -1276,7 +1335,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:16" s="2" customFormat="1">
+    <row r="79" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="D79" s="1"/>
@@ -1284,7 +1343,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:16" s="2" customFormat="1">
+    <row r="80" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="D80" s="1"/>
@@ -1292,7 +1351,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:16" s="2" customFormat="1">
+    <row r="81" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="D81" s="1"/>
@@ -1300,7 +1359,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:16" s="2" customFormat="1">
+    <row r="82" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="D82" s="1"/>
@@ -1308,7 +1367,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:16" s="2" customFormat="1">
+    <row r="83" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="D83" s="1"/>
@@ -1316,7 +1375,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:16" s="2" customFormat="1">
+    <row r="84" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="D84" s="1"/>
@@ -1324,7 +1383,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1">
+    <row r="86" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="D86" s="1"/>
@@ -1332,7 +1391,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:16" s="2" customFormat="1">
+    <row r="87" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="D87" s="1"/>
@@ -1340,7 +1399,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:16" s="2" customFormat="1">
+    <row r="88" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="D88" s="1"/>
@@ -1348,7 +1407,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:16" s="2" customFormat="1">
+    <row r="89" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="D89" s="1"/>
@@ -1356,13 +1415,21 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="91" spans="1:16" s="2" customFormat="1">
+    <row r="91" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="D91" s="1"/>
       <c r="E91" s="4"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" s="2" customFormat="1" ht="409.6">
+      <c r="A92" s="1"/>
+      <c r="B92" s="3"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="4"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
